--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B8346C-1BAD-4590-90B4-FBB1BCB9C959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821B789-7597-41DB-BA24-3997335351A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="规则属性定义" sheetId="4" r:id="rId3"/>
     <sheet name="返回结果定义" sheetId="5" r:id="rId4"/>
     <sheet name="服务方法定义" sheetId="6" r:id="rId5"/>
-    <sheet name="规则类型" sheetId="7" r:id="rId6"/>
+    <sheet name="比较器定义" sheetId="9" r:id="rId6"/>
+    <sheet name="规则类型" sheetId="7" r:id="rId7"/>
+    <sheet name="规则树节点" sheetId="8" r:id="rId8"/>
+    <sheet name="规则树逻辑表达式" sheetId="10" r:id="rId9"/>
+    <sheet name="规则树节点返回结果" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="219">
   <si>
     <t>描述</t>
   </si>
@@ -206,10 +210,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>idx_bill_creator_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>creatorAccount</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>idx_bill_creator_account</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>RuleEntityType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -270,10 +266,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RuleAttribute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>rule_attribute</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -369,10 +361,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RuleReturnType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>rule_return_type</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -397,14 +385,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>服务方法定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleServiceMethod</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>rule_service_method</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -457,10 +437,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rule_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>uk_rule_type_code_tenant</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -490,6 +466,381 @@
   </si>
   <si>
     <t>编码规则：实体类型代码-名称简称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>系统给号</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>父节点Id</t>
+  </si>
+  <si>
+    <t>nodeLevel</t>
+  </si>
+  <si>
+    <t>node_level</t>
+  </si>
+  <si>
+    <t>层级</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>codePath</t>
+  </si>
+  <si>
+    <t>code_path</t>
+  </si>
+  <si>
+    <t>代码路径</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>树形实体的代码路径，以“|”分隔</t>
+  </si>
+  <si>
+    <t>namePath</t>
+  </si>
+  <si>
+    <t>name_path</t>
+  </si>
+  <si>
+    <t>名称路径</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>树形实体的名称路径，以“/”分隔</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>creator_id</t>
+  </si>
+  <si>
+    <t>creatorAccount</t>
+  </si>
+  <si>
+    <t>creator_account</t>
+  </si>
+  <si>
+    <t>matching_rule.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级，越小越优先</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleTypeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则类型Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx_tree_rule_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_type.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleAttributeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_attribute_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则属性Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_attribute.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trueNode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_node</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>真节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleServiceMethodId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_service_method_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务方法Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_service_method.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空表示没有需要执行的方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>asyncExecute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>async_execute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是异步执行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较器定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleComparator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_comparator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较器定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleComparator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_comparator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_rcom_type_id_method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleTreeNode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_tree_node</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleTreeNode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_tree_node</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树逻辑表达式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalExpression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical_expression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_rule_type_code_tenant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_tree_code_tenant_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树逻辑表达式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalExpression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical_expression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleTreeNodeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_tree_node_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparisonOperator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison_operator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举：【包含：CONTAIN】【等于：EQUAL】【小于：LESS】【小于等于：LESS_EQUAL】【大于：GREATER】【大于等于：GREATER_EQUAL】【不等于：NOTEQUAL】【正则匹配：MATCH】【比较器：COMPARER】；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchValue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeReturnResut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_return_resut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点返回结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点返回结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeReturnResut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_return_resut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleReturnTypeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_return_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果类型Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnValueId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_value_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回对象Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnValueName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_value_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回对象名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_nrr_node_type_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +993,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -670,6 +1021,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -988,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,63 +1387,107 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1078,10 +1495,388 @@
     <hyperlink ref="B2" location="规则业务实体!A1" display="rule_entity_type" xr:uid="{E09693F2-03C0-488B-B7B8-1253F8C34E8F}"/>
     <hyperlink ref="B4" location="返回结果定义!A1" display="rule_return_type" xr:uid="{3D2CA073-5DBD-4C1B-86F8-E233334E9E98}"/>
     <hyperlink ref="B3" location="规则属性定义!A1" display="rule_attribute" xr:uid="{94656890-159C-4FB1-AAB6-B45289C74232}"/>
-    <hyperlink ref="B6" location="规则类型!A1" display="rule_type" xr:uid="{610B80B7-E73E-4FAB-ADDB-710C822AD003}"/>
+    <hyperlink ref="B7" location="规则类型!A1" display="rule_type" xr:uid="{610B80B7-E73E-4FAB-ADDB-710C822AD003}"/>
+    <hyperlink ref="B8" location="规则树节点!A1" display="rule_tree_node" xr:uid="{7D018B27-B672-4B89-B315-4025F313BFBF}"/>
+    <hyperlink ref="B9" location="规则树逻辑表达式!A1" display="logical_expression" xr:uid="{FC9B2E8B-9AB3-42D2-B719-3E5C35742BD5}"/>
+    <hyperlink ref="B10" location="规则树节点返回结果!A1" display="node_return_resut" xr:uid="{72F105AC-FAAC-4CEE-AF57-8915A514F198}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68CAD6-28C2-4025-A9EB-53A1D82EC81A}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="13"/>
+    <col min="9" max="9" width="22.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1090,7 +1885,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1107,13 +1902,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1188,7 +1983,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
@@ -1198,7 +1993,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1224,13 +2019,13 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>40</v>
@@ -1239,10 +2034,10 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1269,9 +2064,7 @@
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1279,10 +2072,10 @@
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -1290,9 +2083,7 @@
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1423,7 +2214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9D13AB-CE05-47EF-AB57-3683DF3D0BB9}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1441,13 +2234,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1510,25 +2303,25 @@
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
@@ -1537,19 +2330,19 @@
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -1559,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1570,7 +2363,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>40</v>
@@ -1585,13 +2378,13 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>39</v>
@@ -1600,21 +2393,21 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -1624,7 +2417,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1651,9 +2444,7 @@
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1661,10 +2452,10 @@
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -1672,9 +2463,7 @@
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1823,13 +2612,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1892,25 +2681,25 @@
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
@@ -1931,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -1941,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1967,13 +2756,13 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1983,7 +2772,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2010,9 +2799,7 @@
       <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2020,10 +2807,10 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2031,9 +2818,7 @@
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2165,7 +2950,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2184,13 +2969,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2253,25 +3038,25 @@
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
@@ -2280,19 +3065,19 @@
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -2302,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2328,13 +3113,13 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>41</v>
@@ -2344,7 +3129,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2371,9 +3156,7 @@
       <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2381,10 +3164,10 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2392,9 +3175,7 @@
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2522,11 +3303,368 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D742E6DD-3EF4-4419-9EDC-B2C61DD8D7C1}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69FEF76-C9F7-4743-AF2E-7F302B47F489}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2545,13 +3683,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2614,13 +3752,13 @@
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>43</v>
@@ -2628,7 +3766,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>9</v>
@@ -2649,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -2659,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2691,7 +3829,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>41</v>
@@ -2701,7 +3839,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2717,22 +3855,22 @@
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
@@ -2753,9 +3891,7 @@
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2763,10 +3899,10 @@
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2774,9 +3910,7 @@
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2901,4 +4035,909 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771456D-0E34-4570-B928-D9A9CEEB0704}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6797D1C-DBCA-4613-BF2A-8FDEF6306F7C}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="151.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821B789-7597-41DB-BA24-3997335351A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4F674D-4B26-4BD3-A302-BCFC5B26DC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="225">
   <si>
     <t>描述</t>
   </si>
@@ -841,6 +841,30 @@
   </si>
   <si>
     <t>uk_nrr_node_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则结束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用标识</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1509,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68CAD6-28C2-4025-A9EB-53A1D82EC81A}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4039,10 +4063,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771456D-0E34-4570-B928-D9A9CEEB0704}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4336,136 +4360,144 @@
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>222</v>
+      </c>
       <c r="I13" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="G14" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="20"/>
+      <c r="H15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -4475,16 +4507,16 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -4494,16 +4526,16 @@
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -4513,16 +4545,16 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -4532,16 +4564,16 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -4551,16 +4583,16 @@
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -4568,9 +4600,48 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4F674D-4B26-4BD3-A302-BCFC5B26DC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF410AB5-E5AA-4912-B2A4-9610D388BA38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="226">
   <si>
     <t>描述</t>
   </si>
@@ -865,6 +865,10 @@
   </si>
   <si>
     <t>启用标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认=0，逻辑表达式结果始终为真</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4065,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771456D-0E34-4570-B928-D9A9CEEB0704}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4355,7 +4359,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4649,7 +4653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6797D1C-DBCA-4613-BF2A-8FDEF6306F7C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4F674D-4B26-4BD3-A302-BCFC5B26DC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF1B36-51C5-4C52-BBA7-5D7EB2FCB6FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4272" yWindow="420" windowWidth="14964" windowHeight="12360" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="212">
   <si>
     <t>描述</t>
   </si>
@@ -262,14 +262,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>规则属性定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_attribute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ruleEntityTypeId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -357,14 +349,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>返回结果定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_return_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>uk_rrt_type_id_code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -385,10 +369,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rule_service_method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>method</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -429,10 +409,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>规则类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>RuleType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -532,339 +508,312 @@
     <t>name_path</t>
   </si>
   <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>树形实体的名称路径，以“/”分隔</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>creator_id</t>
+  </si>
+  <si>
+    <t>creatorAccount</t>
+  </si>
+  <si>
+    <t>creator_account</t>
+  </si>
+  <si>
+    <t>matching_rule.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级，越小越优先</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleTypeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则类型Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx_tree_rule_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_type.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleAttributeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_attribute_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则属性Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_attribute.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trueNode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_node</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>真节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleServiceMethodId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_service_method_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务方法Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_service_method.id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空表示没有需要执行的方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>asyncExecute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>async_execute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是异步执行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较器定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleComparator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_comparator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleComparator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_rcom_type_id_method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleTreeNode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_tree_node</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleTreeNode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树逻辑表达式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalExpression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical_expression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_rule_type_code_tenant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_tree_code_tenant_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalExpression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleTreeNodeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_tree_node_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparisonOperator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison_operator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举：【包含：CONTAIN】【等于：EQUAL】【小于：LESS】【小于等于：LESS_EQUAL】【大于：GREATER】【大于等于：GREATER_EQUAL】【不等于：NOTEQUAL】【正则匹配：MATCH】【比较器：COMPARER】；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchValue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeReturnResut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_return_resut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树节点返回结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleReturnTypeId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_return_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果类型Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnValueId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_value_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回对象Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnValueName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_value_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回对象名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_nrr_node_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则结束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_return_result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeReturnResult</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>名称路径</t>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-  </si>
-  <si>
-    <t>树形实体的名称路径，以“/”分隔</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>creator_id</t>
-  </si>
-  <si>
-    <t>creatorAccount</t>
-  </si>
-  <si>
-    <t>creator_account</t>
-  </si>
-  <si>
-    <t>matching_rule.id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级，越小越优先</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleTypeId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_type_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则类型Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx_tree_rule_type_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_type.id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleAttributeId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_attribute_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则属性Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_attribute.id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>trueNode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>true_node</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>真节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认=0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleServiceMethodId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_service_method_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务方法Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_service_method.id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>空表示没有需要执行的方法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>asyncExecute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>async_execute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是异步执行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较器定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleComparator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_comparator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较器定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleComparator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_comparator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_rcom_type_id_method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleTreeNode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_tree_node</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则树节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则树节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleTreeNode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_tree_node</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则树逻辑表达式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogicalExpression</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>logical_expression</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_rule_type_code_tenant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_tree_code_tenant_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则树逻辑表达式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogicalExpression</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>logical_expression</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleTreeNodeId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_tree_node_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则树节点Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comparisonOperator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comparison_operator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>运算符</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举：【包含：CONTAIN】【等于：EQUAL】【小于：LESS】【小于等于：LESS_EQUAL】【大于：GREATER】【大于等于：GREATER_EQUAL】【不等于：NOTEQUAL】【正则匹配：MATCH】【比较器：COMPARER】；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchValue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeReturnResut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_return_resut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则树节点返回结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则树节点返回结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeReturnResut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_return_resut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleReturnTypeId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule_return_type_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回结果类型Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>returnValueId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_value_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回对象Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>returnValueName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_value_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回对象名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_nrr_node_type_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>finished</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则结束</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>enabled</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用标识</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1391,14 +1340,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1420,7 +1369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -1431,84 +1380,84 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1533,31 +1482,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68CAD6-28C2-4025-A9EB-53A1D82EC81A}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="13"/>
-    <col min="9" max="9" width="22.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -1566,7 +1517,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -1618,69 +1569,69 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>40</v>
@@ -1693,15 +1644,15 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>11</v>
@@ -1714,7 +1665,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1725,18 +1676,18 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -1746,7 +1697,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1716,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>52</v>
       </c>
@@ -1784,7 +1735,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
@@ -1803,7 +1754,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1773,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -1841,7 +1792,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1811,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1879,7 +1830,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -1909,22 +1860,22 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -1941,7 +1892,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1993,7 +1944,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -2007,7 +1958,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
@@ -2017,10 +1968,10 @@
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -2041,7 +1992,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -2064,7 +2015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2075,7 +2026,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2045,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -2113,7 +2064,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2083,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2102,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2170,7 +2121,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2140,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -2208,7 +2159,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -2239,32 +2190,32 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2273,7 +2224,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -2325,48 +2276,48 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -2376,10 +2327,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2387,7 +2338,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>40</v>
@@ -2400,15 +2351,15 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>39</v>
@@ -2420,18 +2371,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -2441,10 +2392,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2455,7 +2406,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2474,7 +2425,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -2493,7 +2444,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2512,7 +2463,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +2482,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2550,7 +2501,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2569,7 +2520,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -2588,7 +2539,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2618,31 +2569,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E191A7F-FCCA-4886-9721-846F1F15FEC2}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2651,7 +2604,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +2633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -2703,34 +2656,34 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -2744,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -2754,10 +2707,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2778,15 +2731,15 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -2796,10 +2749,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2810,7 +2763,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -2829,7 +2782,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
@@ -2848,7 +2801,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2867,7 +2820,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2886,7 +2839,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2905,7 +2858,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2924,7 +2877,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -2943,7 +2896,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -2974,32 +2927,32 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3008,7 +2961,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3037,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3060,48 +3013,48 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -3111,10 +3064,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -3135,15 +3088,15 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>41</v>
@@ -3153,10 +3106,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3167,7 +3120,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3139,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
@@ -3205,7 +3158,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3224,7 +3177,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3243,7 +3196,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3262,7 +3215,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -3281,7 +3234,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -3300,7 +3253,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -3330,33 +3283,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D742E6DD-3EF4-4419-9EDC-B2C61DD8D7C1}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3365,7 +3318,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3394,7 +3347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -3417,48 +3370,48 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -3468,10 +3421,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
@@ -3492,15 +3445,15 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>41</v>
@@ -3510,10 +3463,10 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3524,7 +3477,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3543,7 +3496,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>52</v>
       </c>
@@ -3562,7 +3515,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -3581,7 +3534,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
@@ -3600,7 +3553,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -3619,7 +3572,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>26</v>
       </c>
@@ -3638,7 +3591,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
@@ -3657,7 +3610,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
@@ -3688,32 +3641,32 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3722,7 +3675,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3751,7 +3704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3774,15 +3727,15 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>43</v>
@@ -3790,14 +3743,14 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -3811,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -3821,10 +3774,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -3845,7 +3798,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -3853,7 +3806,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>41</v>
@@ -3863,10 +3816,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3877,24 +3830,24 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
@@ -3902,7 +3855,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -3921,7 +3874,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -3940,7 +3893,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3959,7 +3912,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -3978,7 +3931,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -3997,7 +3950,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -4016,7 +3969,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -4035,7 +3988,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -4065,30 +4018,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771456D-0E34-4570-B928-D9A9CEEB0704}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -4097,7 +4050,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4126,15 +4079,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>8</v>
@@ -4149,21 +4102,21 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>10</v>
@@ -4173,18 +4126,18 @@
         <v>10</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>15</v>
@@ -4197,41 +4150,41 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -4241,21 +4194,21 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>10</v>
@@ -4263,42 +4216,42 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -4307,46 +4260,46 @@
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -4355,41 +4308,41 @@
         <v>9</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>43</v>
@@ -4397,25 +4350,25 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -4424,33 +4377,33 @@
         <v>9</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4461,24 +4414,24 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
@@ -4486,12 +4439,12 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>13</v>
@@ -4505,12 +4458,12 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>14</v>
@@ -4524,7 +4477,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>16</v>
       </c>
@@ -4543,7 +4496,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
@@ -4562,7 +4515,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -4581,7 +4534,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
@@ -4600,7 +4553,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
@@ -4619,7 +4572,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>32</v>
       </c>
@@ -4650,29 +4603,29 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="151.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="151.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -4681,7 +4634,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4710,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -4733,15 +4686,15 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>43</v>
@@ -4749,22 +4702,22 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>43</v>
@@ -4772,22 +4725,22 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>39</v>
@@ -4799,18 +4752,18 @@
         <v>9</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>11</v>
@@ -4823,7 +4776,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4834,18 +4787,18 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -4855,7 +4808,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -4874,7 +4827,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>52</v>
       </c>
@@ -4893,7 +4846,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
@@ -4912,7 +4865,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -4931,7 +4884,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -4950,7 +4903,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -4969,7 +4922,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -4988,7 +4941,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF410AB5-E5AA-4912-B2A4-9610D388BA38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F45E88-6D3B-4E09-B022-792E15C9432C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -796,14 +796,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>NodeReturnResut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_return_resut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ruleReturnTypeId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -869,6 +861,14 @@
   </si>
   <si>
     <t>默认=0，逻辑表达式结果始终为真</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeReturnResult</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_return_result</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1395,14 +1395,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>173</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>186</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>203</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1537,28 +1537,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68CAD6-28C2-4025-A9EB-53A1D82EC81A}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="13"/>
-    <col min="9" max="9" width="22.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>206</v>
@@ -1570,7 +1572,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -1622,7 +1624,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>193</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>38</v>
@@ -1649,42 +1651,42 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>40</v>
@@ -1697,15 +1699,15 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>11</v>
@@ -1718,7 +1720,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1729,7 +1731,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>110</v>
       </c>
@@ -1750,7 +1752,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +1771,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>52</v>
       </c>
@@ -1788,7 +1790,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
@@ -1807,7 +1809,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +1828,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -1845,7 +1847,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -1864,7 +1866,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1883,7 +1885,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -1905,6 +1907,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1916,19 +1919,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -1945,7 +1948,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1997,7 +2000,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -2045,7 +2048,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2079,7 +2082,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2101,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -2117,7 +2120,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2136,7 +2139,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -2155,7 +2158,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2174,7 +2177,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -2193,7 +2196,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -2212,7 +2215,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -2246,21 +2249,21 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -2277,7 +2280,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -2329,7 +2332,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -2356,7 +2359,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2404,7 +2407,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2459,7 +2462,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2481,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -2497,7 +2500,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2516,7 +2519,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2538,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2554,7 +2557,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2573,7 +2576,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -2592,7 +2595,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2624,21 +2627,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>86</v>
       </c>
@@ -2655,7 +2658,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -2707,7 +2710,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -2734,7 +2737,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2782,7 +2785,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2814,7 +2817,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2836,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
@@ -2852,7 +2855,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2871,7 +2874,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2890,7 +2893,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2909,7 +2912,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2928,7 +2931,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -2947,7 +2950,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -2981,21 +2984,21 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>94</v>
       </c>
@@ -3012,7 +3015,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3064,7 +3067,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -3091,7 +3094,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>97</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -3139,7 +3142,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>101</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3171,7 +3174,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -3190,7 +3193,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
@@ -3209,7 +3212,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3228,7 +3231,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3247,7 +3250,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3266,7 +3269,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -3304,7 +3307,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -3338,21 +3341,21 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>176</v>
       </c>
@@ -3369,7 +3372,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -3421,7 +3424,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>67</v>
       </c>
@@ -3448,7 +3451,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>97</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
@@ -3496,7 +3499,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>101</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3528,7 +3531,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3547,7 +3550,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>52</v>
       </c>
@@ -3566,7 +3569,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3588,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
@@ -3604,7 +3607,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -3623,7 +3626,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>26</v>
       </c>
@@ -3642,7 +3645,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
@@ -3661,7 +3664,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
@@ -3695,21 +3698,21 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>108</v>
       </c>
@@ -3726,7 +3729,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3778,7 +3781,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
@@ -3801,7 +3804,7 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3881,7 +3884,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>110</v>
       </c>
@@ -3906,7 +3909,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -3925,7 +3928,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -3944,7 +3947,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3963,7 +3966,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -3982,7 +3985,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4001,7 +4004,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -4020,7 +4023,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -4039,7 +4042,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -4073,18 +4076,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>183</v>
       </c>
@@ -4101,7 +4104,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
@@ -4153,7 +4156,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>120</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>123</v>
       </c>
@@ -4201,7 +4204,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>125</v>
       </c>
@@ -4224,7 +4227,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>128</v>
       </c>
@@ -4245,7 +4248,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>132</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>137</v>
       </c>
@@ -4291,7 +4294,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>142</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>150</v>
       </c>
@@ -4339,7 +4342,7 @@
       </c>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>159</v>
       </c>
@@ -4359,33 +4362,33 @@
         <v>9</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>164</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>169</v>
       </c>
@@ -4431,30 +4434,30 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4465,7 +4468,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>110</v>
       </c>
@@ -4490,7 +4493,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>12</v>
       </c>
@@ -4509,7 +4512,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>145</v>
       </c>
@@ -4528,7 +4531,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>16</v>
       </c>
@@ -4547,7 +4550,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
@@ -4566,7 +4569,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -4585,7 +4588,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
@@ -4604,7 +4607,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
@@ -4623,7 +4626,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>32</v>
       </c>
@@ -4653,22 +4656,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6797D1C-DBCA-4613-BF2A-8FDEF6306F7C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="151.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="151.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>191</v>
       </c>
@@ -4685,7 +4688,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -4737,7 +4740,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>193</v>
       </c>
@@ -4760,7 +4763,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>155</v>
       </c>
@@ -4783,7 +4786,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>196</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>200</v>
       </c>
@@ -4827,7 +4830,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4838,7 +4841,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>110</v>
       </c>
@@ -4859,7 +4862,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -4878,7 +4881,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>52</v>
       </c>
@@ -4897,7 +4900,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
@@ -4916,7 +4919,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -4935,7 +4938,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -4954,7 +4957,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -4973,7 +4976,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -4992,7 +4995,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\sei\sei-rule\docs\数据结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F45E88-6D3B-4E09-B022-792E15C9432C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29840D7A-697A-4956-9767-9D762FDB9603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="227">
   <si>
     <t>描述</t>
   </si>
@@ -433,10 +433,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RuleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>uk_rule_type_code_tenant</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -869,6 +865,14 @@
   </si>
   <si>
     <t>node_return_result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户代码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1395,14 +1399,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1457,18 +1461,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>174</v>
-      </c>
       <c r="C6" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -1479,40 +1483,40 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>187</v>
-      </c>
       <c r="C9" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1541,29 +1545,29 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="13"/>
-    <col min="9" max="9" width="22.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>225</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -1572,7 +1576,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -1624,69 +1628,69 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>209</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>212</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>40</v>
@@ -1699,15 +1703,15 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>11</v>
@@ -1720,7 +1724,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1731,18 +1735,18 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -1752,7 +1756,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1775,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>52</v>
       </c>
@@ -1790,7 +1794,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +1813,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1832,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +1851,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -1866,7 +1870,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1885,7 +1889,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -1919,19 +1923,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -1948,7 +1952,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -2000,7 +2004,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -2024,10 +2028,10 @@
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -2048,7 +2052,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2082,7 +2086,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2101,7 +2105,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -2120,7 +2124,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +2143,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -2158,7 +2162,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2177,7 +2181,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -2196,7 +2200,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -2215,7 +2219,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -2246,24 +2250,24 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -2280,7 +2284,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -2332,7 +2336,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -2359,7 +2363,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2407,7 +2411,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2462,7 +2466,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2485,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -2500,7 +2504,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2542,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2576,7 +2580,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -2595,7 +2599,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2625,23 +2629,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E191A7F-FCCA-4886-9721-846F1F15FEC2}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>86</v>
       </c>
@@ -2658,7 +2664,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -2710,7 +2716,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -2737,7 +2743,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2785,7 +2791,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2817,7 +2823,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -2836,7 +2842,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
@@ -2855,7 +2861,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2874,7 +2880,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2893,7 +2899,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2912,7 +2918,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2931,7 +2937,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -2950,7 +2956,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -2984,21 +2990,21 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>94</v>
       </c>
@@ -3015,7 +3021,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3067,7 +3073,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -3094,7 +3100,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>97</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -3142,7 +3148,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>101</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3174,7 +3180,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -3193,7 +3199,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
@@ -3212,7 +3218,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3231,7 +3237,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3250,7 +3256,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3269,7 +3275,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3294,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -3307,7 +3313,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -3341,29 +3347,29 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.125" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>177</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3372,7 +3378,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -3424,7 +3430,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>67</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>38</v>
@@ -3451,7 +3457,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>97</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -3478,7 +3484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
@@ -3499,7 +3505,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>101</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3531,7 +3537,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3550,7 +3556,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>52</v>
       </c>
@@ -3569,7 +3575,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -3588,7 +3594,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
@@ -3607,7 +3613,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -3626,7 +3632,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>26</v>
       </c>
@@ -3645,7 +3651,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
@@ -3664,7 +3670,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
@@ -3695,26 +3701,26 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>106</v>
@@ -3729,7 +3735,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3781,7 +3787,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
@@ -3804,7 +3810,7 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -3828,10 +3834,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -3852,7 +3858,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>41</v>
@@ -3870,10 +3876,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3884,21 +3890,21 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>84</v>
@@ -3909,7 +3915,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -3928,7 +3934,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -3947,7 +3953,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3966,7 +3972,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -3985,7 +3991,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4004,7 +4010,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -4023,7 +4029,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -4042,7 +4048,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -4076,26 +4082,26 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -4104,7 +4110,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4133,15 +4139,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>8</v>
@@ -4156,21 +4162,21 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>10</v>
@@ -4180,18 +4186,18 @@
         <v>10</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="B5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>15</v>
@@ -4204,41 +4210,41 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -4248,21 +4254,21 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="E8" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>10</v>
@@ -4270,42 +4276,42 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="B10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -4314,46 +4320,46 @@
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>151</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>162</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -4362,41 +4368,41 @@
         <v>9</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>43</v>
@@ -4404,25 +4410,25 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>171</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -4431,33 +4437,33 @@
         <v>9</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4468,21 +4474,21 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E18" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>84</v>
@@ -4493,12 +4499,12 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>13</v>
@@ -4512,12 +4518,12 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>14</v>
@@ -4531,7 +4537,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>16</v>
       </c>
@@ -4550,7 +4556,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
@@ -4569,7 +4575,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -4588,7 +4594,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
@@ -4607,7 +4613,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
@@ -4626,7 +4632,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>32</v>
       </c>
@@ -4656,30 +4662,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6797D1C-DBCA-4613-BF2A-8FDEF6306F7C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="151.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="151.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>192</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -4688,7 +4694,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -4740,15 +4746,15 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>43</v>
@@ -4756,22 +4762,22 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>43</v>
@@ -4779,22 +4785,22 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>39</v>
@@ -4806,18 +4812,18 @@
         <v>9</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>11</v>
@@ -4830,7 +4836,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4841,18 +4847,18 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -4862,7 +4868,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -4881,7 +4887,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>52</v>
       </c>
@@ -4900,7 +4906,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
@@ -4919,7 +4925,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -4938,7 +4944,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -4957,7 +4963,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -4976,7 +4982,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -4995,7 +5001,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26A15FF-AA20-41E2-A885-18561B9DA5AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9588" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="197">
   <si>
     <t>类名称</t>
   </si>
@@ -599,19 +605,33 @@
   </si>
   <si>
     <t>返回对象名称</t>
+  </si>
+  <si>
+    <t>returnConstant</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_constant</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则返回结果（返回一个常量）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,107 +670,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,37 +683,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -799,14 +690,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,198 +713,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1016,380 +728,97 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="44" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="常规 9" xfId="5"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
-    <cellStyle name="货币" xfId="9" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="10" builtinId="37"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="14" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="15" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="16" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="17" builtinId="44"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="19" builtinId="29"/>
-    <cellStyle name="适中" xfId="20" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="21" builtinId="46"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="23" builtinId="30"/>
-    <cellStyle name="汇总" xfId="24" builtinId="25"/>
-    <cellStyle name="差" xfId="25" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="28" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="31" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="32" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="34" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9"/>
-    <cellStyle name="标题" xfId="36" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="38" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="39" builtinId="40"/>
-    <cellStyle name="注释" xfId="40" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="41" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="42" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="43" builtinId="51"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="45" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="46" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="48" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="50" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 9" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -1409,7 +838,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1417,6 +846,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1540,7 +972,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1564,9 +996,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1590,7 +1022,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1643,7 +1075,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1668,32 +1100,32 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.8796296296296" customWidth="true"/>
-    <col min="2" max="2" width="28.6296296296296" customWidth="true"/>
-    <col min="3" max="3" width="29.8796296296296" customWidth="true"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1715,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="true" ht="15.75" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1726,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="true" ht="15.75" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1737,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="true" ht="15.75" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="true" ht="15.75" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1759,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="true" ht="15.75" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1770,7 +1202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="true" ht="15.75" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1781,7 +1213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="true" ht="15.75" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="true" ht="15.75" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1803,48 +1235,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="规则业务实体!A1" display="rule_entity_type"/>
-    <hyperlink ref="B4" location="返回结果定义!A1" display="rule_return_type"/>
-    <hyperlink ref="B3" location="规则属性定义!A1" display="rule_attribute"/>
-    <hyperlink ref="B7" location="规则类型!A1" display="rule_type"/>
-    <hyperlink ref="B8" location="规则树节点!A1" display="rule_tree_node"/>
-    <hyperlink ref="B9" location="规则树逻辑表达式!A1" display="logical_expression"/>
-    <hyperlink ref="B10" location="规则树节点返回结果!A1" display="node_return_resut"/>
+    <hyperlink ref="B2" location="规则业务实体!A1" display="rule_entity_type" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" location="返回结果定义!A1" display="rule_return_type" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" location="规则属性定义!A1" display="rule_attribute" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" location="规则类型!A1" display="rule_type" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" location="规则树节点!A1" display="rule_tree_node" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" location="规则树逻辑表达式!A1" display="logical_expression" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B10" location="规则树节点返回结果!A1" display="node_return_resut" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.3796296296296" customWidth="true"/>
-    <col min="2" max="2" width="17.75" customWidth="true"/>
-    <col min="3" max="3" width="19.25" customWidth="true"/>
-    <col min="4" max="4" width="10.5" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="16.3796296296296" customWidth="true"/>
-    <col min="9" max="9" width="22.25" customWidth="true"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -1861,7 +1292,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1890,7 +1321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +1344,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" customFormat="true" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>163</v>
       </c>
@@ -1936,7 +1367,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>167</v>
       </c>
@@ -1963,7 +1394,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>183</v>
       </c>
@@ -1990,7 +1421,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>186</v>
       </c>
@@ -2011,7 +1442,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>189</v>
       </c>
@@ -2032,7 +1463,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2043,7 +1474,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>113</v>
       </c>
@@ -2064,7 +1495,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -2083,7 +1514,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2102,7 +1533,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -2121,7 +1552,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -2140,7 +1571,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2159,7 +1590,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2178,7 +1609,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="15.75" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -2197,7 +1628,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" ht="15.75" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -2217,34 +1648,33 @@
       <c r="I18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="true"/>
-    <col min="2" max="2" width="16.3796296296296" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="11.3796296296296" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="13" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="26.3796296296296" customWidth="true"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2261,7 +1691,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2290,7 +1720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2313,7 +1743,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -2340,7 +1770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -2361,7 +1791,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
@@ -2384,7 +1814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="true" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2395,7 +1825,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -2414,7 +1844,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -2433,7 +1863,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -2452,7 +1882,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
@@ -2471,7 +1901,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2490,7 +1920,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
@@ -2509,7 +1939,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>72</v>
       </c>
@@ -2528,7 +1958,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
@@ -2548,34 +1978,33 @@
       <c r="I15" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="true"/>
-    <col min="2" max="2" width="16.3796296296296" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="11.3796296296296" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="16.3796296296296" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="57.1296296296296" customWidth="true"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2021,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2621,7 +2050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2644,7 +2073,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
@@ -2671,7 +2100,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>84</v>
       </c>
@@ -2698,7 +2127,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -2719,7 +2148,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
@@ -2742,7 +2171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>93</v>
       </c>
@@ -2763,7 +2192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2774,7 +2203,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -2793,7 +2222,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -2812,7 +2241,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +2260,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -2850,7 +2279,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2869,7 +2298,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
@@ -2888,7 +2317,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
@@ -2907,7 +2336,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="15.75" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -2927,34 +2356,33 @@
       <c r="I17" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6296296296296" customWidth="true"/>
-    <col min="2" max="2" width="16.3796296296296" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="11.3796296296296" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="16.3796296296296" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="57.1296296296296" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2971,7 +2399,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3000,7 +2428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -3023,7 +2451,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
@@ -3050,7 +2478,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -3077,7 +2505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -3098,7 +2526,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>93</v>
       </c>
@@ -3119,7 +2547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3130,7 +2558,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -3149,7 +2577,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -3168,7 +2596,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
@@ -3187,7 +2615,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -3206,7 +2634,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -3225,7 +2653,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -3244,7 +2672,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -3263,7 +2691,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -3283,34 +2711,33 @@
       <c r="I16" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="true"/>
-    <col min="2" max="2" width="19.8796296296296" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="11.3796296296296" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="16.3796296296296" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="57.1296296296296" customWidth="true"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3327,7 +2754,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3356,7 +2783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -3379,7 +2806,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
@@ -3406,7 +2833,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
@@ -3433,7 +2860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +2881,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>103</v>
       </c>
@@ -3475,7 +2902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3486,7 +2913,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -3505,7 +2932,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -3524,7 +2951,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
@@ -3543,7 +2970,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -3562,7 +2989,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -3581,7 +3008,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -3600,7 +3027,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -3619,7 +3046,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -3639,34 +3066,33 @@
       <c r="I16" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="true"/>
-    <col min="2" max="2" width="19.8796296296296" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="11.3796296296296" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="16.3796296296296" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="57.1296296296296" customWidth="true"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3683,7 +3109,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3712,7 +3138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -3735,7 +3161,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
@@ -3762,7 +3188,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
@@ -3789,7 +3215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -3810,7 +3236,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>103</v>
       </c>
@@ -3831,7 +3257,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3842,7 +3268,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -3861,7 +3287,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -3880,7 +3306,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
@@ -3899,7 +3325,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -3918,7 +3344,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -3937,7 +3363,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -3956,7 +3382,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -3975,7 +3401,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -3995,34 +3421,33 @@
       <c r="I16" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="true"/>
-    <col min="2" max="2" width="16.3796296296296" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="10.5" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="16.3796296296296" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="26.3796296296296" customWidth="true"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4039,7 +3464,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -4068,7 +3493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -4091,7 +3516,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" customFormat="true" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
@@ -4114,7 +3539,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -4141,7 +3566,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -4162,7 +3587,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -4183,7 +3608,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4194,7 +3619,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -4219,7 +3644,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -4238,7 +3663,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -4257,7 +3682,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4276,7 +3701,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -4295,7 +3720,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -4314,7 +3739,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
@@ -4333,7 +3758,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
@@ -4352,7 +3777,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="15.75" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -4372,33 +3797,32 @@
       <c r="I17" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.3796296296296" customWidth="true"/>
-    <col min="3" max="3" width="12.25" customWidth="true"/>
-    <col min="4" max="4" width="11.3796296296296" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="6" max="6" width="4.75" customWidth="true"/>
-    <col min="7" max="7" width="18.8796296296296" customWidth="true"/>
-    <col min="9" max="9" width="26.3796296296296" customWidth="true"/>
+    <col min="1" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4415,7 +3839,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -4444,7 +3868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -4467,7 +3891,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -4494,7 +3918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -4515,7 +3939,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>120</v>
       </c>
@@ -4538,7 +3962,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>124</v>
       </c>
@@ -4559,7 +3983,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
@@ -4584,7 +4008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>132</v>
       </c>
@@ -4605,7 +4029,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>137</v>
       </c>
@@ -4628,7 +4052,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>140</v>
       </c>
@@ -4653,7 +4077,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" customFormat="true" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>145</v>
       </c>
@@ -4676,7 +4100,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" customFormat="true" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -4699,61 +4123,59 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" customFormat="true" ht="15.75" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>40</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" customFormat="true" ht="15.75" spans="1:9">
+      <c r="I14" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="G15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" customFormat="true" ht="15.75" spans="1:9">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>148</v>
@@ -4768,73 +4190,77 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:9">
-      <c r="A18" s="3" t="s">
+      <c r="H17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:9">
-      <c r="A19" s="3" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:9">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4842,15 +4268,15 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" ht="15.75" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
@@ -4861,18 +4287,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" ht="15.75" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4880,18 +4306,18 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" ht="15.75" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4899,18 +4325,18 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" ht="15.75" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4918,15 +4344,15 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" ht="15.75" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>44</v>
@@ -4937,18 +4363,18 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" ht="15.75" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4956,34 +4382,52 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.3796296296296" customWidth="true"/>
-    <col min="2" max="2" width="17.75" customWidth="true"/>
-    <col min="3" max="3" width="17.25" customWidth="true"/>
-    <col min="4" max="4" width="10.5" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="7" max="7" width="16.3796296296296" customWidth="true"/>
-    <col min="9" max="9" width="151.12962962963" customWidth="true"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="151.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5000,7 +4444,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -5029,7 +4473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -5052,7 +4496,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>163</v>
       </c>
@@ -5075,7 +4519,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>167</v>
       </c>
@@ -5098,7 +4542,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" customFormat="true" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>169</v>
       </c>
@@ -5121,7 +4565,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>173</v>
       </c>
@@ -5144,7 +4588,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>177</v>
       </c>
@@ -5165,7 +4609,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5176,7 +4620,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>113</v>
       </c>
@@ -5197,7 +4641,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -5216,7 +4660,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -5235,7 +4679,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5254,7 +4698,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -5273,7 +4717,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -5292,7 +4736,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -5311,7 +4755,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="15.75" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -5330,7 +4774,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" ht="15.75" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -5350,7 +4794,7 @@
       <c r="I18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26A15FF-AA20-41E2-A885-18561B9DA5AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7DC306-85A7-4D43-8CF2-C08499C6160E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="210">
   <si>
     <t>类名称</t>
   </si>
@@ -560,12 +560,6 @@
   </si>
   <si>
     <t>枚举：【包含：CONTAIN】【等于：EQUAL】【小于：LESS】【小于等于：LESS_EQUAL】【大于：GREATER】【大于等于：GREATER_EQUAL】【不等于：NOTEQUAL】【正则匹配：MATCH】【比较器：COMPARER】；</t>
-  </si>
-  <si>
-    <t>matchValue</t>
-  </si>
-  <si>
-    <t>match_value</t>
   </si>
   <si>
     <t>匹配值</t>
@@ -623,7 +617,67 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>返回结果</t>
+    <t>matchField</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_field</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配值使用的字段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择匹配值的数据，使用哪个字段的值来执行匹配</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDataUrl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_data_url</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取数据的url</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回常量值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI组件通过这个地址获取数据,是网关路径之后的先对地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择属性的显示值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparisonValue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayValue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配的显示值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1169,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1277,10 +1331,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -1381,7 +1435,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -1396,25 +1450,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>41</v>
@@ -1423,13 +1477,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>44</v>
@@ -1444,13 +1498,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>85</v>
@@ -1659,7 +1713,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2193,66 +2247,70 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2262,16 +2320,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2281,16 +2339,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2300,16 +2358,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2319,16 +2377,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2338,22 +2396,60 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2367,7 +2463,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3807,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4125,23 +4221,23 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4410,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4589,14 +4685,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>85</v>
@@ -4610,68 +4706,70 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="9" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4681,13 +4779,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
@@ -4700,16 +4798,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4719,16 +4817,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4738,16 +4836,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4757,13 +4855,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>44</v>
@@ -4776,16 +4874,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4793,8 +4891,28 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7DC306-85A7-4D43-8CF2-C08499C6160E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68E71B-2937-4CBA-8935-D26C934634B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="214">
   <si>
     <t>类名称</t>
   </si>
@@ -653,10 +653,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>UI组件通过这个地址获取数据,是网关路径之后的先对地址</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>选择属性的显示值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -678,6 +674,26 @@
   </si>
   <si>
     <t>匹配的显示值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI组件通过这个地址获取数据,是网关路径之后的相对路径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI组件通过这个地址获取数据,是网关路径之后的相对地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端使用这个UI组件来选择返回结果对象的Id和Name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2043,7 +2059,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2285,7 +2301,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2638,53 +2654,59 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>96</v>
+      <c r="H7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2694,13 +2716,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>44</v>
@@ -2713,16 +2735,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2732,16 +2754,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2751,16 +2773,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2770,13 +2792,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -2789,16 +2811,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2806,10 +2828,29 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4508,7 +4549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4686,10 +4727,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>177</v>
@@ -4707,13 +4748,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>201</v>
@@ -4723,7 +4764,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68E71B-2937-4CBA-8935-D26C934634B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364A0D7-C320-4D5D-B02A-2F9DACF57740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="223">
   <si>
     <t>类名称</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>选择匹配值的UI组件Id</t>
-  </si>
-  <si>
-    <t>uk_rrt_type_id_code</t>
   </si>
   <si>
     <t>全类名</t>
@@ -694,6 +691,46 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleEntityTypeId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_rrt_type_id_code</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_rsm_type_id_method</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务方法定义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_rcom_type_id_method</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +809,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -848,7 +894,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -876,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1347,10 +1396,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -1416,13 +1465,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>40</v>
@@ -1430,7 +1479,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>41</v>
@@ -1439,25 +1488,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
@@ -1466,25 +1515,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>41</v>
@@ -1493,13 +1542,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>44</v>
@@ -1514,13 +1563,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>85</v>
@@ -1546,16 +1595,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2059,7 +2108,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2144,8 +2193,8 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
+      <c r="A4" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>79</v>
@@ -2171,8 +2220,8 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>84</v>
+      <c r="A5" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>84</v>
@@ -2264,13 +2313,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>44</v>
@@ -2280,28 +2329,28 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2470,7 +2519,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2478,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2576,11 +2625,11 @@
       <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>82</v>
+      <c r="E4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>83</v>
@@ -2603,18 +2652,18 @@
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>82</v>
+      <c r="E5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2655,33 +2704,33 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2859,7 +2908,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2881,8 +2930,8 @@
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
+      <c r="C1" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2957,7 +3006,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>82</v>
@@ -2971,20 +3020,20 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>99</v>
+      <c r="E5" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -2994,7 +3043,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3019,24 +3068,30 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3213,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3312,7 +3367,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>82</v>
@@ -3327,19 +3382,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>107</v>
+      <c r="E5" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3349,7 +3404,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3375,23 +3430,29 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3690,7 +3751,7 @@
         <v>85</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3700,7 +3761,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3726,23 +3787,23 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3758,19 +3819,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>82</v>
@@ -4039,10 +4100,10 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>41</v>
@@ -4052,7 +4113,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4078,39 +4139,39 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4122,19 +4183,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
@@ -4142,42 +4203,42 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4186,28 +4247,28 @@
         <v>41</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>41</v>
@@ -4216,16 +4277,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4234,21 +4295,21 @@
         <v>41</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -4257,39 +4318,39 @@
         <v>41</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>40</v>
@@ -4297,25 +4358,25 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -4324,21 +4385,21 @@
         <v>41</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -4347,7 +4408,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -4363,19 +4424,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>82</v>
@@ -4635,13 +4696,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>40</v>
@@ -4649,7 +4710,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>41</v>
@@ -4658,13 +4719,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
@@ -4672,7 +4733,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
@@ -4681,13 +4742,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -4695,7 +4756,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>41</v>
@@ -4704,13 +4765,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>91</v>
@@ -4722,18 +4783,18 @@
         <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>85</v>
@@ -4748,23 +4809,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4780,16 +4841,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364A0D7-C320-4D5D-B02A-2F9DACF57740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC6031C-73AD-44E5-97BF-B12568420C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="227">
   <si>
     <t>类名称</t>
   </si>
@@ -614,14 +614,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>matchField</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_field</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>匹配值使用的字段</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -731,6 +723,30 @@
   </si>
   <si>
     <t>uk_rcom_type_id_method</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueField</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_field</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayField</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_field</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配值显示的字段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择匹配值的数据，使用哪个字段的值来显示</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2105,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2194,7 +2210,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>79</v>
@@ -2221,7 +2237,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>84</v>
@@ -2313,13 +2329,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>44</v>
@@ -2329,72 +2345,74 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>200</v>
+        <v>225</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="9" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="9" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2404,13 +2422,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>44</v>
@@ -2423,16 +2441,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2442,16 +2460,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2461,16 +2479,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2480,13 +2498,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>44</v>
@@ -2499,22 +2517,41 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2626,10 +2663,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>83</v>
@@ -2653,10 +2690,10 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
@@ -2704,33 +2741,33 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2931,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3021,7 +3058,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>99</v>
@@ -3033,7 +3070,7 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3069,7 +3106,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>102</v>
@@ -3081,14 +3118,14 @@
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>105</v>
@@ -3268,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3394,7 +3431,7 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3442,14 +3479,14 @@
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>105</v>
@@ -4329,7 +4366,7 @@
         <v>190</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>191</v>
@@ -4611,7 +4648,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4788,10 +4825,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>176</v>
@@ -4809,23 +4846,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>207</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC6031C-73AD-44E5-97BF-B12568420C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3CE909-3A57-4A00-A988-41C5DAB9064A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2124,7 +2124,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3CE909-3A57-4A00-A988-41C5DAB9064A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF45DF-CE12-4B83-AFDD-C32CB098B366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="224">
   <si>
     <t>类名称</t>
   </si>
@@ -515,15 +515,6 @@
   </si>
   <si>
     <t>启用标识</t>
-  </si>
-  <si>
-    <t>ruleTreeRootNodeId</t>
-  </si>
-  <si>
-    <t>rule_tree_root_node_id</t>
-  </si>
-  <si>
-    <t>规则树根节点Id</t>
   </si>
   <si>
     <t>rule_tree_node_id</t>
@@ -1393,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1412,10 +1403,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -1481,10 +1472,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>164</v>
@@ -1492,10 +1483,14 @@
       <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>41</v>
@@ -1504,25 +1499,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
@@ -1540,17 +1535,11 @@
         <v>182</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
@@ -1567,7 +1556,7 @@
         <v>185</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1578,70 +1567,68 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1651,13 +1638,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
@@ -1670,16 +1657,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1689,16 +1676,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1708,16 +1695,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1727,13 +1714,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>44</v>
@@ -1746,41 +1733,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2123,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +2178,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>79</v>
@@ -2237,7 +2205,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>84</v>
@@ -2329,13 +2297,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>44</v>
@@ -2345,18 +2313,18 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>44</v>
@@ -2366,28 +2334,28 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2663,10 +2631,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>83</v>
@@ -2690,10 +2658,10 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
@@ -2741,33 +2709,33 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2968,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3058,7 +3026,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>99</v>
@@ -3070,7 +3038,7 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3106,7 +3074,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>102</v>
@@ -3118,14 +3086,14 @@
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>105</v>
@@ -3431,7 +3399,7 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3479,14 +3447,14 @@
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>105</v>
@@ -4360,23 +4328,23 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4645,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4733,10 +4701,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>164</v>
@@ -4747,7 +4715,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>41</v>
@@ -4756,10 +4724,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>167</v>
@@ -4770,7 +4738,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
@@ -4779,39 +4747,39 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4819,96 +4787,92 @@
       <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>85</v>
+      <c r="D8" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="9" t="s">
-        <v>200</v>
-      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4918,13 +4882,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
@@ -4937,16 +4901,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4956,16 +4920,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4975,16 +4939,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4994,13 +4958,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>44</v>
@@ -5013,41 +4977,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF45DF-CE12-4B83-AFDD-C32CB098B366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B739B361-063C-45A1-AA36-A884A006813F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="232">
   <si>
     <t>类名称</t>
   </si>
@@ -541,16 +541,10 @@
     <t>comparisonOperator</t>
   </si>
   <si>
-    <t>comparison_operator</t>
-  </si>
-  <si>
     <t>运算符</t>
   </si>
   <si>
     <t>枚举：【包含：CONTAIN】【等于：EQUAL】【小于：LESS】【小于等于：LESS_EQUAL】【大于：GREATER】【大于等于：GREATER_EQUAL】【不等于：NOTEQUAL】【正则匹配：MATCH】【比较器：COMPARER】；</t>
-  </si>
-  <si>
-    <t>匹配值</t>
   </si>
   <si>
     <t>NodeReturnResult</t>
@@ -738,6 +732,46 @@
   </si>
   <si>
     <t>选择匹配值的数据，使用哪个字段的值来显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则树逻辑表达式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalExpression</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparisonValueType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison_value_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配值类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举：【属性值：NORMAL】【其他属性：OTHER】；默认=NORMAL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison_operator</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -1403,10 +1437,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -1484,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>82</v>
@@ -1499,25 +1533,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
@@ -1526,13 +1560,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
@@ -1547,13 +1581,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>85</v>
@@ -2178,7 +2212,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>79</v>
@@ -2205,7 +2239,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>84</v>
@@ -2297,13 +2331,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>44</v>
@@ -2313,18 +2347,18 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>44</v>
@@ -2334,28 +2368,28 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2631,10 +2665,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>83</v>
@@ -2658,10 +2692,10 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
@@ -2709,33 +2743,33 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,7 +2970,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3026,7 +3060,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>99</v>
@@ -3038,7 +3072,7 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3074,7 +3108,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>102</v>
@@ -3086,14 +3120,14 @@
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>105</v>
@@ -3399,7 +3433,7 @@
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -3447,14 +3481,14 @@
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>105</v>
@@ -4328,23 +4362,23 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4613,10 +4647,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4631,14 +4665,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
+      <c r="A1" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+      <c r="C1" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4749,14 +4783,14 @@
       <c r="A6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>91</v>
+      <c r="D6" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4765,114 +4799,118 @@
         <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>226</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>195</v>
+        <v>222</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9" t="s">
-        <v>197</v>
-      </c>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="9" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4882,13 +4920,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
@@ -4901,16 +4939,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4920,16 +4958,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4939,16 +4977,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4958,13 +4996,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>44</v>
@@ -4977,22 +5015,41 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/docs/数据结构/数据结构-规则引擎.xlsx
+++ b/docs/数据结构/数据结构-规则引擎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-rule\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B739B361-063C-45A1-AA36-A884A006813F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23FC19-6560-4B61-BBFF-E81292DD7FCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -2125,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4649,7 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
